--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Anxa1-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Anxa1-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.49436566666666</v>
+        <v>24.19202866666667</v>
       </c>
       <c r="H2">
-        <v>85.48309699999999</v>
+        <v>72.576086</v>
       </c>
       <c r="I2">
-        <v>0.04826188997421808</v>
+        <v>0.0688374849512199</v>
       </c>
       <c r="J2">
-        <v>0.04826188997421808</v>
+        <v>0.06883748495121988</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,22 +564,22 @@
         <v>3.327523</v>
       </c>
       <c r="O2">
-        <v>0.06061832081580491</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="P2">
-        <v>0.06061832081580491</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="Q2">
-        <v>31.60521904208122</v>
+        <v>26.83317726833089</v>
       </c>
       <c r="R2">
-        <v>284.446971378731</v>
+        <v>241.498595414978</v>
       </c>
       <c r="S2">
-        <v>0.00292555472963423</v>
+        <v>0.008256006362258754</v>
       </c>
       <c r="T2">
-        <v>0.00292555472963423</v>
+        <v>0.008256006362258752</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.49436566666666</v>
+        <v>24.19202866666667</v>
       </c>
       <c r="H3">
-        <v>85.48309699999999</v>
+        <v>72.576086</v>
       </c>
       <c r="I3">
-        <v>0.04826188997421808</v>
+        <v>0.0688374849512199</v>
       </c>
       <c r="J3">
-        <v>0.04826188997421808</v>
+        <v>0.06883748495121988</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.402069333333333</v>
+        <v>6.33823</v>
       </c>
       <c r="N3">
-        <v>13.206208</v>
+        <v>19.01469</v>
       </c>
       <c r="O3">
-        <v>0.2405808023879172</v>
+        <v>0.6853512477903235</v>
       </c>
       <c r="P3">
-        <v>0.2405808023879172</v>
+        <v>0.6853512477903234</v>
       </c>
       <c r="Q3">
-        <v>125.4341732740195</v>
+        <v>153.3346418559267</v>
       </c>
       <c r="R3">
-        <v>1128.907559466176</v>
+        <v>1380.01177670334</v>
       </c>
       <c r="S3">
-        <v>0.01161088421475476</v>
+        <v>0.04717785620606618</v>
       </c>
       <c r="T3">
-        <v>0.01161088421475476</v>
+        <v>0.04717785620606616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.49436566666666</v>
+        <v>24.19202866666667</v>
       </c>
       <c r="H4">
-        <v>85.48309699999999</v>
+        <v>72.576086</v>
       </c>
       <c r="I4">
-        <v>0.04826188997421808</v>
+        <v>0.0688374849512199</v>
       </c>
       <c r="J4">
-        <v>0.04826188997421808</v>
+        <v>0.06883748495121988</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>12.78643133333333</v>
+        <v>0.09159266666666667</v>
       </c>
       <c r="N4">
-        <v>38.35929400000001</v>
+        <v>0.274778</v>
       </c>
       <c r="O4">
-        <v>0.6988008767962779</v>
+        <v>0.009903892472889619</v>
       </c>
       <c r="P4">
-        <v>0.6988008767962779</v>
+        <v>0.009903892472889617</v>
       </c>
       <c r="Q4">
-        <v>364.3412499837242</v>
+        <v>2.215812417656445</v>
       </c>
       <c r="R4">
-        <v>3279.071249853518</v>
+        <v>19.942311758908</v>
       </c>
       <c r="S4">
-        <v>0.03372545102982909</v>
+        <v>0.0006817590490610392</v>
       </c>
       <c r="T4">
-        <v>0.03372545102982909</v>
+        <v>0.000681759049061039</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>142.0814363333334</v>
+        <v>24.19202866666667</v>
       </c>
       <c r="H5">
-        <v>426.244309</v>
+        <v>72.576086</v>
       </c>
       <c r="I5">
-        <v>0.2406482294750577</v>
+        <v>0.0688374849512199</v>
       </c>
       <c r="J5">
-        <v>0.2406482294750577</v>
+        <v>0.06883748495121988</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.109174333333333</v>
+        <v>1.709151333333333</v>
       </c>
       <c r="N5">
-        <v>3.327523</v>
+        <v>5.127454</v>
       </c>
       <c r="O5">
-        <v>0.06061832081580491</v>
+        <v>0.1848101124387242</v>
       </c>
       <c r="P5">
-        <v>0.06061832081580491</v>
+        <v>0.1848101124387242</v>
       </c>
       <c r="Q5">
-        <v>157.5930824240675</v>
+        <v>41.34783805167157</v>
       </c>
       <c r="R5">
-        <v>1418.337741816607</v>
+        <v>372.130542465044</v>
       </c>
       <c r="S5">
-        <v>0.01458769157807449</v>
+        <v>0.01272186333383394</v>
       </c>
       <c r="T5">
-        <v>0.01458769157807449</v>
+        <v>0.01272186333383393</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>426.244309</v>
       </c>
       <c r="I6">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="J6">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>4.402069333333333</v>
+        <v>1.109174333333333</v>
       </c>
       <c r="N6">
-        <v>13.206208</v>
+        <v>3.327523</v>
       </c>
       <c r="O6">
-        <v>0.2405808023879172</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="P6">
-        <v>0.2405808023879172</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="Q6">
-        <v>625.4523337189192</v>
+        <v>157.5930824240675</v>
       </c>
       <c r="R6">
-        <v>5629.071003470272</v>
+        <v>1418.337741816607</v>
       </c>
       <c r="S6">
-        <v>0.05789534414034102</v>
+        <v>0.04848808913421683</v>
       </c>
       <c r="T6">
-        <v>0.057895344140341</v>
+        <v>0.04848808913421682</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>426.244309</v>
       </c>
       <c r="I7">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="J7">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.78643133333333</v>
+        <v>6.33823</v>
       </c>
       <c r="N7">
-        <v>38.35929400000001</v>
+        <v>19.01469</v>
       </c>
       <c r="O7">
-        <v>0.6988008767962779</v>
+        <v>0.6853512477903235</v>
       </c>
       <c r="P7">
-        <v>0.6988008767962779</v>
+        <v>0.6853512477903234</v>
       </c>
       <c r="Q7">
-        <v>1816.714529417539</v>
+        <v>900.5448222110235</v>
       </c>
       <c r="R7">
-        <v>16350.43076475785</v>
+        <v>8104.903399899212</v>
       </c>
       <c r="S7">
-        <v>0.1681651937566422</v>
+        <v>0.2770787710797196</v>
       </c>
       <c r="T7">
-        <v>0.1681651937566422</v>
+        <v>0.2770787710797195</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>209.9177196666667</v>
+        <v>142.0814363333334</v>
       </c>
       <c r="H8">
-        <v>629.753159</v>
+        <v>426.244309</v>
       </c>
       <c r="I8">
-        <v>0.3555448824061003</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="J8">
-        <v>0.3555448824061003</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.109174333333333</v>
+        <v>0.09159266666666667</v>
       </c>
       <c r="N8">
-        <v>3.327523</v>
+        <v>0.274778</v>
       </c>
       <c r="O8">
-        <v>0.06061832081580491</v>
+        <v>0.009903892472889619</v>
       </c>
       <c r="P8">
-        <v>0.06061832081580491</v>
+        <v>0.009903892472889617</v>
       </c>
       <c r="Q8">
-        <v>232.8353467661285</v>
+        <v>13.01361763760023</v>
       </c>
       <c r="R8">
-        <v>2095.518120895157</v>
+        <v>117.122558738402</v>
       </c>
       <c r="S8">
-        <v>0.02155253374611062</v>
+        <v>0.004004017449653041</v>
       </c>
       <c r="T8">
-        <v>0.02155253374611062</v>
+        <v>0.004004017449653039</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>209.9177196666667</v>
+        <v>142.0814363333334</v>
       </c>
       <c r="H9">
-        <v>629.753159</v>
+        <v>426.244309</v>
       </c>
       <c r="I9">
-        <v>0.3555448824061003</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="J9">
-        <v>0.3555448824061003</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.402069333333333</v>
+        <v>1.709151333333333</v>
       </c>
       <c r="N9">
-        <v>13.206208</v>
+        <v>5.127454</v>
       </c>
       <c r="O9">
-        <v>0.2405808023879172</v>
+        <v>0.1848101124387242</v>
       </c>
       <c r="P9">
-        <v>0.2405808023879172</v>
+        <v>0.1848101124387242</v>
       </c>
       <c r="Q9">
-        <v>924.0723562678969</v>
+        <v>242.8386763510318</v>
       </c>
       <c r="R9">
-        <v>8316.651206411072</v>
+        <v>2185.548087159286</v>
       </c>
       <c r="S9">
-        <v>0.08553727309417729</v>
+        <v>0.07471637208325733</v>
       </c>
       <c r="T9">
-        <v>0.08553727309417726</v>
+        <v>0.07471637208325731</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>209.9177196666667</v>
+        <v>65.630404</v>
       </c>
       <c r="H10">
-        <v>629.753159</v>
+        <v>196.891212</v>
       </c>
       <c r="I10">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="J10">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>12.78643133333333</v>
+        <v>1.109174333333333</v>
       </c>
       <c r="N10">
-        <v>38.35929400000001</v>
+        <v>3.327523</v>
       </c>
       <c r="O10">
-        <v>0.6988008767962779</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="P10">
-        <v>0.6988008767962779</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="Q10">
-        <v>2684.09850816775</v>
+        <v>72.79555960309733</v>
       </c>
       <c r="R10">
-        <v>24156.88657350975</v>
+        <v>655.160036427876</v>
       </c>
       <c r="S10">
-        <v>0.2484550755658124</v>
+        <v>0.02239766827526132</v>
       </c>
       <c r="T10">
-        <v>0.2484550755658124</v>
+        <v>0.02239766827526131</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,61 +1098,61 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>77.646779</v>
+        <v>65.630404</v>
       </c>
       <c r="H11">
-        <v>232.940337</v>
+        <v>196.891212</v>
       </c>
       <c r="I11">
-        <v>0.1315130278311194</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="J11">
-        <v>0.1315130278311194</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.109174333333333</v>
+        <v>6.33823</v>
       </c>
       <c r="N11">
-        <v>3.327523</v>
+        <v>19.01469</v>
       </c>
       <c r="O11">
-        <v>0.06061832081580491</v>
+        <v>0.6853512477903235</v>
       </c>
       <c r="P11">
-        <v>0.06061832081580491</v>
+        <v>0.6853512477903234</v>
       </c>
       <c r="Q11">
-        <v>86.12381433280565</v>
+        <v>415.98059554492</v>
       </c>
       <c r="R11">
-        <v>775.114328995251</v>
+        <v>3743.82535990428</v>
       </c>
       <c r="S11">
-        <v>0.007972098912524678</v>
+        <v>0.1279885124691636</v>
       </c>
       <c r="T11">
-        <v>0.007972098912524676</v>
+        <v>0.1279885124691636</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>77.646779</v>
+        <v>65.630404</v>
       </c>
       <c r="H12">
-        <v>232.940337</v>
+        <v>196.891212</v>
       </c>
       <c r="I12">
-        <v>0.1315130278311194</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="J12">
-        <v>0.1315130278311194</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>4.402069333333333</v>
+        <v>0.09159266666666667</v>
       </c>
       <c r="N12">
-        <v>13.206208</v>
+        <v>0.274778</v>
       </c>
       <c r="O12">
-        <v>0.2405808023879172</v>
+        <v>0.009903892472889619</v>
       </c>
       <c r="P12">
-        <v>0.2405808023879172</v>
+        <v>0.009903892472889617</v>
       </c>
       <c r="Q12">
-        <v>341.8065046680106</v>
+        <v>6.011263716770666</v>
       </c>
       <c r="R12">
-        <v>3076.258542012096</v>
+        <v>54.101373450936</v>
       </c>
       <c r="S12">
-        <v>0.0316395097600752</v>
+        <v>0.001849539880968442</v>
       </c>
       <c r="T12">
-        <v>0.03163950976007519</v>
+        <v>0.001849539880968442</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>77.646779</v>
+        <v>65.630404</v>
       </c>
       <c r="H13">
-        <v>232.940337</v>
+        <v>196.891212</v>
       </c>
       <c r="I13">
-        <v>0.1315130278311194</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="J13">
-        <v>0.1315130278311194</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.78643133333333</v>
+        <v>1.709151333333333</v>
       </c>
       <c r="N13">
-        <v>38.35929400000001</v>
+        <v>5.127454</v>
       </c>
       <c r="O13">
-        <v>0.6988008767962779</v>
+        <v>0.1848101124387242</v>
       </c>
       <c r="P13">
-        <v>0.6988008767962779</v>
+        <v>0.1848101124387242</v>
       </c>
       <c r="Q13">
-        <v>992.8252079380087</v>
+        <v>112.1722925038053</v>
       </c>
       <c r="R13">
-        <v>8935.42687144208</v>
+        <v>1009.550632534248</v>
       </c>
       <c r="S13">
-        <v>0.09190141915851956</v>
+        <v>0.03451306385820977</v>
       </c>
       <c r="T13">
-        <v>0.09190141915851956</v>
+        <v>0.03451306385820976</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>132.271009</v>
+        <v>62.22373433333333</v>
       </c>
       <c r="H14">
-        <v>396.813027</v>
+        <v>186.671203</v>
       </c>
       <c r="I14">
-        <v>0.2240319703135046</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="J14">
-        <v>0.2240319703135046</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1308,27 +1308,27 @@
         <v>3.327523</v>
       </c>
       <c r="O14">
-        <v>0.06061832081580491</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="P14">
-        <v>0.06061832081580491</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="Q14">
-        <v>146.7116082269023</v>
+        <v>69.01696904668545</v>
       </c>
       <c r="R14">
-        <v>1320.404474042121</v>
+        <v>621.152721420169</v>
       </c>
       <c r="S14">
-        <v>0.0135804418494609</v>
+        <v>0.02123507514057034</v>
       </c>
       <c r="T14">
-        <v>0.0135804418494609</v>
+        <v>0.02123507514057034</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>132.271009</v>
+        <v>62.22373433333333</v>
       </c>
       <c r="H15">
-        <v>396.813027</v>
+        <v>186.671203</v>
       </c>
       <c r="I15">
-        <v>0.2240319703135046</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="J15">
-        <v>0.2240319703135046</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,400 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.402069333333333</v>
+        <v>6.33823</v>
       </c>
       <c r="N15">
-        <v>13.206208</v>
+        <v>19.01469</v>
       </c>
       <c r="O15">
-        <v>0.2405808023879172</v>
+        <v>0.6853512477903235</v>
       </c>
       <c r="P15">
-        <v>0.2405808023879172</v>
+        <v>0.6853512477903234</v>
       </c>
       <c r="Q15">
-        <v>582.2661524079574</v>
+        <v>394.3883396635633</v>
       </c>
       <c r="R15">
-        <v>5240.395371671617</v>
+        <v>3549.49505697207</v>
       </c>
       <c r="S15">
-        <v>0.05389779117856898</v>
+        <v>0.1213450277953455</v>
       </c>
       <c r="T15">
-        <v>0.05389779117856897</v>
+        <v>0.1213450277953455</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>62.22373433333333</v>
+      </c>
+      <c r="H16">
+        <v>186.671203</v>
+      </c>
+      <c r="I16">
+        <v>0.1770552372766232</v>
+      </c>
+      <c r="J16">
+        <v>0.1770552372766232</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.09159266666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.274778</v>
+      </c>
+      <c r="O16">
+        <v>0.009903892472889619</v>
+      </c>
+      <c r="P16">
+        <v>0.009903892472889617</v>
+      </c>
+      <c r="Q16">
+        <v>5.699237757548222</v>
+      </c>
+      <c r="R16">
+        <v>51.29313981793401</v>
+      </c>
+      <c r="S16">
+        <v>0.001753536031749634</v>
+      </c>
+      <c r="T16">
+        <v>0.001753536031749634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>62.22373433333333</v>
+      </c>
+      <c r="H17">
+        <v>186.671203</v>
+      </c>
+      <c r="I17">
+        <v>0.1770552372766232</v>
+      </c>
+      <c r="J17">
+        <v>0.1770552372766232</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.709151333333333</v>
+      </c>
+      <c r="N17">
+        <v>5.127454</v>
+      </c>
+      <c r="O17">
+        <v>0.1848101124387242</v>
+      </c>
+      <c r="P17">
+        <v>0.1848101124387242</v>
+      </c>
+      <c r="Q17">
+        <v>106.3497785007958</v>
+      </c>
+      <c r="R17">
+        <v>957.148006507162</v>
+      </c>
+      <c r="S17">
+        <v>0.03272159830895774</v>
+      </c>
+      <c r="T17">
+        <v>0.03272159830895773</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>132.271009</v>
-      </c>
-      <c r="H16">
-        <v>396.813027</v>
-      </c>
-      <c r="I16">
-        <v>0.2240319703135046</v>
-      </c>
-      <c r="J16">
-        <v>0.2240319703135046</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>12.78643133333333</v>
-      </c>
-      <c r="N16">
-        <v>38.35929400000001</v>
-      </c>
-      <c r="O16">
-        <v>0.6988008767962779</v>
-      </c>
-      <c r="P16">
-        <v>0.6988008767962779</v>
-      </c>
-      <c r="Q16">
-        <v>1691.274173969216</v>
-      </c>
-      <c r="R16">
-        <v>15221.46756572294</v>
-      </c>
-      <c r="S16">
-        <v>0.1565537372854747</v>
-      </c>
-      <c r="T16">
-        <v>0.1565537372854747</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>57.30924366666667</v>
+      </c>
+      <c r="H18">
+        <v>171.927731</v>
+      </c>
+      <c r="I18">
+        <v>0.1630712435417071</v>
+      </c>
+      <c r="J18">
+        <v>0.1630712435417071</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>1.109174333333333</v>
+      </c>
+      <c r="N18">
+        <v>3.327523</v>
+      </c>
+      <c r="O18">
+        <v>0.1199347472980627</v>
+      </c>
+      <c r="P18">
+        <v>0.1199347472980627</v>
+      </c>
+      <c r="Q18">
+        <v>63.56594213781255</v>
+      </c>
+      <c r="R18">
+        <v>572.0934792403129</v>
+      </c>
+      <c r="S18">
+        <v>0.01955790838575549</v>
+      </c>
+      <c r="T18">
+        <v>0.01955790838575549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>57.30924366666667</v>
+      </c>
+      <c r="H19">
+        <v>171.927731</v>
+      </c>
+      <c r="I19">
+        <v>0.1630712435417071</v>
+      </c>
+      <c r="J19">
+        <v>0.1630712435417071</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.33823</v>
+      </c>
+      <c r="N19">
+        <v>19.01469</v>
+      </c>
+      <c r="O19">
+        <v>0.6853512477903235</v>
+      </c>
+      <c r="P19">
+        <v>0.6853512477903234</v>
+      </c>
+      <c r="Q19">
+        <v>363.2391674853767</v>
+      </c>
+      <c r="R19">
+        <v>3269.15250736839</v>
+      </c>
+      <c r="S19">
+        <v>0.1117610802400287</v>
+      </c>
+      <c r="T19">
+        <v>0.1117610802400287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>57.30924366666667</v>
+      </c>
+      <c r="H20">
+        <v>171.927731</v>
+      </c>
+      <c r="I20">
+        <v>0.1630712435417071</v>
+      </c>
+      <c r="J20">
+        <v>0.1630712435417071</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.09159266666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.274778</v>
+      </c>
+      <c r="O20">
+        <v>0.009903892472889619</v>
+      </c>
+      <c r="P20">
+        <v>0.009903892472889617</v>
+      </c>
+      <c r="Q20">
+        <v>5.249106452079778</v>
+      </c>
+      <c r="R20">
+        <v>47.241958068718</v>
+      </c>
+      <c r="S20">
+        <v>0.001615040061457463</v>
+      </c>
+      <c r="T20">
+        <v>0.001615040061457463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>57.30924366666667</v>
+      </c>
+      <c r="H21">
+        <v>171.927731</v>
+      </c>
+      <c r="I21">
+        <v>0.1630712435417071</v>
+      </c>
+      <c r="J21">
+        <v>0.1630712435417071</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.709151333333333</v>
+      </c>
+      <c r="N21">
+        <v>5.127454</v>
+      </c>
+      <c r="O21">
+        <v>0.1848101124387242</v>
+      </c>
+      <c r="P21">
+        <v>0.1848101124387242</v>
+      </c>
+      <c r="Q21">
+        <v>97.95017022520823</v>
+      </c>
+      <c r="R21">
+        <v>881.551532026874</v>
+      </c>
+      <c r="S21">
+        <v>0.03013721485446548</v>
+      </c>
+      <c r="T21">
+        <v>0.03013721485446548</v>
       </c>
     </row>
   </sheetData>
